--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/150.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/150.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2933553213364472</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.973359162341546</v>
+        <v>-1.954115728503369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02965307266237054</v>
+        <v>0.04125461479273106</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.294711211213906</v>
+        <v>-0.2949477390046332</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2713596321123655</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.086709265855197</v>
+        <v>-2.063413468540704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002031882878559778</v>
+        <v>0.02281128730837238</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.294614848039906</v>
+        <v>-0.2958135475225421</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2528636656073852</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.221376801520162</v>
+        <v>-2.191446545680579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03507131112773272</v>
+        <v>0.05297734091463701</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3147357707807188</v>
+        <v>-0.3109951275718107</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2343833548347996</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.386496560217208</v>
+        <v>-2.339340657001084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05608870339636345</v>
+        <v>0.07214193215590459</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3384746926908033</v>
+        <v>-0.3404647382387119</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2096423633115359</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.605634448157649</v>
+        <v>-2.542920272484802</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1029606272588054</v>
+        <v>0.1063201979159863</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3232697518720801</v>
+        <v>-0.321497253489717</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1789855559004742</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.546125808068392</v>
+        <v>-2.476201184898593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2279290634558628</v>
+        <v>0.2356950592514061</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3830660214352459</v>
+        <v>-0.3843771446208819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1434500261736105</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.421645757957744</v>
+        <v>-2.341540949474084</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3209589476642923</v>
+        <v>0.3286753018247448</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4080810253767846</v>
+        <v>-0.4073057398405121</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1009361519499755</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.14880584118559</v>
+        <v>-2.065388183583658</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4405675473196238</v>
+        <v>0.4496884677435305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3688904145206133</v>
+        <v>-0.3558682455977987</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04541381002909912</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.793123525759322</v>
+        <v>-1.71289534321198</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5305196501524179</v>
+        <v>0.5315825651625994</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2874489320097262</v>
+        <v>-0.2711737759403668</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0277838015368394</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.226948997162928</v>
+        <v>-1.152505525151767</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5136560947024224</v>
+        <v>0.5129012498394226</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2377839361493758</v>
+        <v>-0.2215671820036529</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1233592568498344</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6562424792923544</v>
+        <v>-0.5802396759201021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4160825408350849</v>
+        <v>0.4173673831550846</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.137801302932039</v>
+        <v>-0.1205479146417709</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2418204058375486</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1072439564374109</v>
+        <v>-0.01700860427498056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2789489839445763</v>
+        <v>0.2799739377043942</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01445498016398125</v>
+        <v>0.004630768480377262</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3806908380678981</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4846142781261575</v>
+        <v>0.58367416095004</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01353076972243604</v>
+        <v>-0.004417149538983945</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1246554818416178</v>
+        <v>0.1468292321982482</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5347316748939738</v>
       </c>
       <c r="E15" t="n">
-        <v>1.03042989614292</v>
+        <v>1.122820279287531</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2380306842767394</v>
+        <v>-0.2258027815153791</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2738300553378504</v>
+        <v>0.3010015503096613</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6963158229733019</v>
       </c>
       <c r="E16" t="n">
-        <v>1.586914085559952</v>
+        <v>1.675422200830838</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6354440942373599</v>
+        <v>-0.6113883418915482</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4410990048247146</v>
+        <v>0.4593612863458006</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8586249794146842</v>
       </c>
       <c r="E17" t="n">
-        <v>2.19499929460588</v>
+        <v>2.282805126745038</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8438075572909404</v>
+        <v>-0.8263497622679451</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5839092286926763</v>
+        <v>0.594915071201946</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.020706338225548</v>
       </c>
       <c r="E18" t="n">
-        <v>2.663663051402845</v>
+        <v>2.762219217635364</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.166378902111581</v>
+        <v>-1.134599495364862</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7377778568011804</v>
+        <v>0.7567468015982662</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.181996717775527</v>
       </c>
       <c r="E19" t="n">
-        <v>3.090204420777094</v>
+        <v>3.19836332330352</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.463989264770047</v>
+        <v>-1.424987000117603</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9215979114465855</v>
+        <v>0.9376555203503995</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.338819383270529</v>
       </c>
       <c r="E20" t="n">
-        <v>3.406227449910009</v>
+        <v>3.513643187958162</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.731070021847611</v>
+        <v>-1.700465953814074</v>
       </c>
       <c r="G20" t="n">
-        <v>1.100703470806446</v>
+        <v>1.120998139270077</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.483387407229064</v>
       </c>
       <c r="E21" t="n">
-        <v>3.77132853557073</v>
+        <v>3.883026594669518</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.997494487308312</v>
+        <v>-1.968337326932866</v>
       </c>
       <c r="G21" t="n">
-        <v>1.228908833621049</v>
+        <v>1.251243189267679</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.60859176644481</v>
       </c>
       <c r="E22" t="n">
-        <v>4.118589293608636</v>
+        <v>4.238336597832604</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.285339318310735</v>
+        <v>-2.247305065542564</v>
       </c>
       <c r="G22" t="n">
-        <v>1.381501379698098</v>
+        <v>1.405278262858547</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.710827247551462</v>
       </c>
       <c r="E23" t="n">
-        <v>4.222464415036336</v>
+        <v>4.352709465033937</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.586388824247336</v>
+        <v>-2.544404411369211</v>
       </c>
       <c r="G23" t="n">
-        <v>1.525886995456151</v>
+        <v>1.543436773508873</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.790088329334425</v>
       </c>
       <c r="E24" t="n">
-        <v>4.422803453782282</v>
+        <v>4.550484659332247</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.913357103893748</v>
+        <v>-2.86694071503567</v>
       </c>
       <c r="G24" t="n">
-        <v>1.607896436674401</v>
+        <v>1.623645975431034</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.845620904140664</v>
       </c>
       <c r="E25" t="n">
-        <v>4.44582403203164</v>
+        <v>4.573674603160151</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.145201790369368</v>
+        <v>-3.094012504302109</v>
       </c>
       <c r="G25" t="n">
-        <v>1.693017240374378</v>
+        <v>1.712167231134737</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.878537078080623</v>
       </c>
       <c r="E26" t="n">
-        <v>4.489586053460446</v>
+        <v>4.626813053428773</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.29362808921901</v>
+        <v>-3.237803880487161</v>
       </c>
       <c r="G26" t="n">
-        <v>1.814414398941073</v>
+        <v>1.834624384615431</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.889025633654475</v>
       </c>
       <c r="E27" t="n">
-        <v>4.491561498527445</v>
+        <v>4.619248544269775</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.438818921499198</v>
+        <v>-3.376244910443079</v>
       </c>
       <c r="G27" t="n">
-        <v>1.85591188578088</v>
+        <v>1.880915209337692</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.879514719182522</v>
       </c>
       <c r="E28" t="n">
-        <v>4.449725280530547</v>
+        <v>4.568894405710515</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.521000648392176</v>
+        <v>-3.449858345114559</v>
       </c>
       <c r="G28" t="n">
-        <v>1.845996699195519</v>
+        <v>1.863907109126696</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.851692772129565</v>
       </c>
       <c r="E29" t="n">
-        <v>4.357748090995663</v>
+        <v>4.469787801347723</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.568529593895527</v>
+        <v>-3.508075572667407</v>
       </c>
       <c r="G29" t="n">
-        <v>1.884423704900145</v>
+        <v>1.902735628056322</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.809877858541894</v>
       </c>
       <c r="E30" t="n">
-        <v>4.320183973712764</v>
+        <v>4.422482243202282</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.680318905999997</v>
+        <v>-3.619989718883649</v>
       </c>
       <c r="G30" t="n">
-        <v>1.904911099711776</v>
+        <v>1.929873541922042</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.755891377283682</v>
       </c>
       <c r="E31" t="n">
-        <v>4.156587045174535</v>
+        <v>4.233928712646151</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.619848094218831</v>
+        <v>-3.568185752570118</v>
       </c>
       <c r="G31" t="n">
-        <v>1.899560023458596</v>
+        <v>1.914074361530319</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.693033845249828</v>
       </c>
       <c r="E32" t="n">
-        <v>4.057454159946107</v>
+        <v>4.118646235484182</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.540982136540307</v>
+        <v>-3.492706376438456</v>
       </c>
       <c r="G32" t="n">
-        <v>1.805553367077348</v>
+        <v>1.823612701913798</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.622354845017715</v>
       </c>
       <c r="E33" t="n">
-        <v>3.855260860124707</v>
+        <v>3.893481999048515</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.54998479306885</v>
+        <v>-3.498752435582909</v>
       </c>
       <c r="G33" t="n">
-        <v>1.772256970364175</v>
+        <v>1.785000270101627</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.547099807593838</v>
       </c>
       <c r="E34" t="n">
-        <v>3.699377365650749</v>
+        <v>3.727071557839105</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.509704986336861</v>
+        <v>-3.459244994291011</v>
       </c>
       <c r="G34" t="n">
-        <v>1.674744738516656</v>
+        <v>1.687112805894744</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.469031011616602</v>
       </c>
       <c r="E35" t="n">
-        <v>3.60814772073841</v>
+        <v>3.631026674322949</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.416274318927477</v>
+        <v>-3.369747696438535</v>
       </c>
       <c r="G35" t="n">
-        <v>1.613603764661763</v>
+        <v>1.623023994944306</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.39240523884188</v>
       </c>
       <c r="E36" t="n">
-        <v>3.411172632793917</v>
+        <v>3.424183121332005</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.316626766747004</v>
+        <v>-3.28612490207983</v>
       </c>
       <c r="G36" t="n">
-        <v>1.516614230030789</v>
+        <v>1.526152724208696</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.31810761398296</v>
       </c>
       <c r="E37" t="n">
-        <v>3.247940716278416</v>
+        <v>3.251320727608869</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.236121175062389</v>
+        <v>-3.206397516027669</v>
       </c>
       <c r="G37" t="n">
-        <v>1.396142741953731</v>
+        <v>1.401163847338366</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.248501606517237</v>
       </c>
       <c r="E38" t="n">
-        <v>3.119341140479268</v>
+        <v>3.129057760524266</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.111763038967331</v>
+        <v>-3.086210007304293</v>
       </c>
       <c r="G38" t="n">
-        <v>1.331188122485385</v>
+        <v>1.342899168222563</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.181939020014853</v>
       </c>
       <c r="E39" t="n">
-        <v>2.81745283691444</v>
+        <v>2.803091803892262</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.97817593888964</v>
+        <v>-2.952089259649374</v>
       </c>
       <c r="G39" t="n">
-        <v>1.203937631122237</v>
+        <v>1.209601157666872</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.117766651835101</v>
       </c>
       <c r="E40" t="n">
-        <v>2.569746918003234</v>
+        <v>2.550357479355966</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.869852050928942</v>
+        <v>-2.846023336061267</v>
       </c>
       <c r="G40" t="n">
-        <v>1.180702425803516</v>
+        <v>1.185984879796424</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.052296872273441</v>
       </c>
       <c r="E41" t="n">
-        <v>2.386972257790919</v>
+        <v>2.375345894843013</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.779614508694375</v>
+        <v>-2.760354284303153</v>
       </c>
       <c r="G41" t="n">
-        <v>1.056772083799095</v>
+        <v>1.06458918127782</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9838517636467558</v>
       </c>
       <c r="E42" t="n">
-        <v>2.155534194708618</v>
+        <v>2.145099231002893</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.667119263337951</v>
+        <v>-2.659465691245408</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9681004431420276</v>
+        <v>0.970461340905027</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9094136282292632</v>
       </c>
       <c r="E43" t="n">
-        <v>2.039742160762922</v>
+        <v>2.030310250095651</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.594269433818016</v>
+        <v>-2.5851740642357</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8608467704319656</v>
+        <v>0.8650414885971462</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8281225531591234</v>
       </c>
       <c r="E44" t="n">
-        <v>1.830317242747251</v>
+        <v>1.823081244408707</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.587653225894063</v>
+        <v>-2.573838250857885</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7847154828277132</v>
+        <v>0.7906812393271662</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7396003290953316</v>
       </c>
       <c r="E45" t="n">
-        <v>1.585623403047589</v>
+        <v>1.584541507412226</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.476814405096774</v>
+        <v>-2.464375525386278</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6786225483499235</v>
+        <v>0.6880223379591938</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6469588854280419</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386218795079824</v>
+        <v>1.388404487071915</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.438726860573285</v>
+        <v>-2.419591470293835</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6545069340323846</v>
+        <v>0.6653609315401998</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5534189671302118</v>
       </c>
       <c r="E47" t="n">
-        <v>1.108631531940081</v>
+        <v>1.106546583266263</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.371828187071894</v>
+        <v>-2.357513145564579</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5490885417725947</v>
+        <v>0.5542585720625024</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4638869436714876</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9465150921660335</v>
+        <v>0.94941766777076</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.318338595237408</v>
+        <v>-2.305348547372593</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4632800554217996</v>
+        <v>0.4663724372783442</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3806622747701996</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7229744292074571</v>
+        <v>0.7239760221978204</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.260636034636605</v>
+        <v>-2.244207573517701</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3924545825799095</v>
+        <v>0.3918034011313642</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3058996925399721</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5883506949852205</v>
+        <v>0.6005946582755809</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.208605030844938</v>
+        <v>-2.194573238667259</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3152311790036575</v>
+        <v>0.3180417715786568</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2388398874962947</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4048606112083607</v>
+        <v>0.4337783236968984</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.171297882026038</v>
+        <v>-2.148382427239226</v>
       </c>
       <c r="G51" t="n">
-        <v>0.262146750514399</v>
+        <v>0.2613597845933993</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1789337849280522</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2763968198816679</v>
+        <v>0.3153333823700211</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.09452198318965</v>
+        <v>-2.070115089277975</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2208536704073192</v>
+        <v>0.2287189494730444</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1247266676400528</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1415788992633405</v>
+        <v>0.1804789605494209</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.040212574352119</v>
+        <v>-2.019762410766806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1291246890478893</v>
+        <v>0.131656412437525</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07553806983621431</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09209056922199015</v>
+        <v>0.1423162235492494</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.989880336514223</v>
+        <v>-1.971200481239138</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05886571486527179</v>
+        <v>0.06829762553254198</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03046505946953506</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.106554813738502</v>
+        <v>-0.04877925073315385</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.976531116819045</v>
+        <v>-1.958849204414095</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01281579807801143</v>
+        <v>0.0252992092552808</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01040863404851957</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2266934108508334</v>
+        <v>-0.168920767941667</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.857573698612259</v>
+        <v>-1.848249101479671</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01955638819361624</v>
+        <v>-0.0005319615690758973</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.04826384483337429</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3842603407736092</v>
+        <v>-0.3257474534823522</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.784664007120597</v>
+        <v>-1.767521582485238</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0682081106788759</v>
+        <v>-0.05167160600124399</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.08326901258476234</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4348787480373229</v>
+        <v>-0.3648081200584326</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.774595515485691</v>
+        <v>-1.756131747328059</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1474712014381274</v>
+        <v>-0.1363967366685849</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1169974983291137</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6770905059824397</v>
+        <v>-0.603172651284005</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.725916052086703</v>
+        <v>-1.712315704119889</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.170567702188212</v>
+        <v>-0.1572900248494883</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1496893772119445</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7027596114687055</v>
+        <v>-0.6261961496295443</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.648202072351906</v>
+        <v>-1.639659330971999</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2059651081042025</v>
+        <v>-0.1992226060203862</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1820475329290672</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8671508061683887</v>
+        <v>-0.7710606611614145</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.657299632006358</v>
+        <v>-1.646290869400907</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2554986996363711</v>
+        <v>-0.2449177311215557</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2132856135466752</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.039401439741433</v>
+        <v>-0.9426878541996411</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.595129324247375</v>
+        <v>-1.583444559375833</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.307680818405448</v>
+        <v>-0.3010609603612679</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2431754982321282</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.123484149248774</v>
+        <v>-1.020559519128257</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.631129730024911</v>
+        <v>-1.618298827402005</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3654388608337052</v>
+        <v>-0.3599928814546157</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2704435002184361</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.334880132187172</v>
+        <v>-1.225249501185111</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.597090168833465</v>
+        <v>-1.58466077943556</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4163186167056915</v>
+        <v>-0.4040980141847857</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2949255569755228</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.512297875953943</v>
+        <v>-1.4007049403177</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.536295226376118</v>
+        <v>-1.528806639717847</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4691854980294046</v>
+        <v>-0.4620750638266792</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.315662150619777</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.645610486990543</v>
+        <v>-1.527889729516757</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.563290055528929</v>
+        <v>-1.562653474561293</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4769894550753116</v>
+        <v>-0.4621451461350429</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3326433863721019</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.790611513018913</v>
+        <v>-1.669380069910537</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.525339025501939</v>
+        <v>-1.52728380955903</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5295745471174793</v>
+        <v>-0.5133782336450291</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3456822995775809</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.945297768058326</v>
+        <v>-1.820762966144269</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.538229790096572</v>
+        <v>-1.55782801562084</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5415717622804761</v>
+        <v>-0.524766608754117</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3546175125186145</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.050808143347843</v>
+        <v>-1.92092153515656</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.547794565140115</v>
+        <v>-1.572990615044926</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5522359535364733</v>
+        <v>-0.530875449966479</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3591332479793743</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.184650021817399</v>
+        <v>-2.048293210511253</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.548676434187024</v>
+        <v>-1.580409119394834</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6360587744836326</v>
+        <v>-0.6134718305172749</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3593605455990045</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.262679371939832</v>
+        <v>-2.126083112746778</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.555417476222749</v>
+        <v>-1.592696884127921</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6875269297362551</v>
+        <v>-0.6568396389615361</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3551039023496491</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.344770575851174</v>
+        <v>-2.212118636575709</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.558763906447112</v>
+        <v>-1.591317138682012</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6805698005830751</v>
+        <v>-0.6630550636845344</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3464951011577199</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.32904220779186</v>
+        <v>-2.196923916093623</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.556846863303749</v>
+        <v>-1.58159175834847</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7373481507423326</v>
+        <v>-0.7149729137491568</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3337070443044219</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.369239521806712</v>
+        <v>-2.239933282731565</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.538542240388026</v>
+        <v>-1.569105427075018</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7309020384209707</v>
+        <v>-0.7134909649368845</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3169048817507986</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.26682152837374</v>
+        <v>-2.136418793182321</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.486964581528586</v>
+        <v>-1.519847784632032</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7504769031757836</v>
+        <v>-0.7354179671661513</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2963687248859242</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.235103443646839</v>
+        <v>-2.113133946228509</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.3648753601668</v>
+        <v>-1.403125700052427</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7541241033068735</v>
+        <v>-0.7367699716983327</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2724122439782927</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.077375178410018</v>
+        <v>-1.961937936150413</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.378442127027524</v>
+        <v>-1.41675670902915</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7148371292767023</v>
+        <v>-0.6974070751674343</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.245263905226652</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.919613332067106</v>
+        <v>-1.810933922396271</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.338576973953353</v>
+        <v>-1.379846693290978</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7259437151042447</v>
+        <v>-0.707230278723068</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2157031585409286</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.73548666732261</v>
+        <v>-1.641791001184726</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.271918478362916</v>
+        <v>-1.325982599121174</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6944957392741623</v>
+        <v>-0.6784147696008939</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1833970870982552</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.539634356360026</v>
+        <v>-1.442475456150507</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.263310034818919</v>
+        <v>-1.313751776263632</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6253157406307263</v>
+        <v>-0.6088449381171853</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1487098725679353</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.369037957273981</v>
+        <v>-1.281623418023186</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.154028355310584</v>
+        <v>-1.200657911189935</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5687169763866506</v>
+        <v>-0.5508649683791099</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1114327098079769</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.150978314848676</v>
+        <v>-1.061401444375246</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.130657365519409</v>
+        <v>-1.170805767923216</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5278049688312979</v>
+        <v>-0.510325273086939</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.07203993153718499</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.8723923788147508</v>
+        <v>-0.789490848212955</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.040979751727706</v>
+        <v>-1.085400254845512</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4987806728321239</v>
+        <v>-0.4803461056363107</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0316916371001479</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5463826207400202</v>
+        <v>-0.4753293803959484</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9672955047238163</v>
+        <v>-1.022066288758074</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.440825523911594</v>
+        <v>-0.4246467310162347</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.008750438693381152</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.3039956570239944</v>
+        <v>-0.2443512324622832</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9120443648676493</v>
+        <v>-0.9635942828133628</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3888609523080626</v>
+        <v>-0.3858371927117906</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04844101872857896</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.02505200920779659</v>
+        <v>0.02698556480028035</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8503675533633932</v>
+        <v>-0.9102601861005589</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.305074632563176</v>
+        <v>-0.2940585697172698</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08644815887366493</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2318989342150435</v>
+        <v>0.281816518395121</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7505280048589654</v>
+        <v>-0.8084057712306771</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2374846262907395</v>
+        <v>-0.2286352748117419</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1214954346273205</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4380942258536245</v>
+        <v>0.4894543375475198</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6328189277699061</v>
+        <v>-0.6778803919996212</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2059023260362935</v>
+        <v>-0.1966456211399323</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1518781692275819</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7224196109329118</v>
+        <v>0.774404623209716</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4793766337039473</v>
+        <v>-0.5243636354810262</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1296863556427685</v>
+        <v>-0.1188177576540441</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1760393486415986</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9717520234173903</v>
+        <v>1.026032231293103</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3459428386758013</v>
+        <v>-0.3878841801352446</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07415926669741976</v>
+        <v>-0.06456821078824052</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1928463412347678</v>
       </c>
       <c r="E91" t="n">
-        <v>1.152194986828524</v>
+        <v>1.2060313400846</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1653976718983043</v>
+        <v>-0.2093567998193835</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04272005115588275</v>
+        <v>-0.03780990942615679</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2019843761806468</v>
       </c>
       <c r="E92" t="n">
-        <v>1.288992732658123</v>
+        <v>1.329714933961658</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.01499665800570838</v>
+        <v>-0.06231097643969567</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04279889375279182</v>
+        <v>-0.03912541275606553</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2042825581879373</v>
       </c>
       <c r="E93" t="n">
-        <v>1.402599074611729</v>
+        <v>1.436634255658902</v>
       </c>
       <c r="F93" t="n">
-        <v>0.139140618951523</v>
+        <v>0.10279126168026</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04288795668633725</v>
+        <v>-0.03823770351679304</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2009514047944464</v>
       </c>
       <c r="E94" t="n">
-        <v>1.432445377686085</v>
+        <v>1.445486527234081</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2718940315693055</v>
+        <v>0.2398459759738596</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07011201338942084</v>
+        <v>-0.05914413213051471</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1935285712230769</v>
       </c>
       <c r="E95" t="n">
-        <v>1.481755581860344</v>
+        <v>1.488960919188979</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4274241944052637</v>
+        <v>0.4052519040967242</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0883830551990523</v>
+        <v>-0.08109011498496335</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1829307130538948</v>
       </c>
       <c r="E96" t="n">
-        <v>1.438457855724447</v>
+        <v>1.430234864876449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4663257157394351</v>
+        <v>0.4477276231574401</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1258026277209514</v>
+        <v>-0.1182103776482261</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1713037769229218</v>
       </c>
       <c r="E97" t="n">
-        <v>1.365221843484467</v>
+        <v>1.359612338719195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.537314713967507</v>
+        <v>0.5254051016899647</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1640471274142138</v>
+        <v>-0.1546137566988527</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1582363823144362</v>
       </c>
       <c r="E98" t="n">
-        <v>1.2737717313104</v>
+        <v>1.26748914437522</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5608755100105006</v>
+        <v>0.5501514567827762</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1979012624981138</v>
+        <v>-0.1938233481802058</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1463400794950155</v>
       </c>
       <c r="E99" t="n">
-        <v>1.225784330706504</v>
+        <v>1.206397812155418</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5765943877572237</v>
+        <v>0.5733779018129518</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2129835592772007</v>
+        <v>-0.216480374454927</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1322350947019187</v>
       </c>
       <c r="E100" t="n">
-        <v>1.117959779192897</v>
+        <v>1.109380536610717</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5460282809740501</v>
+        <v>0.5471758787735043</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2295799259265598</v>
+        <v>-0.2326854482159227</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1168563656077836</v>
       </c>
       <c r="E101" t="n">
-        <v>1.036502236153009</v>
+        <v>1.021709028895922</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5287851130204183</v>
+        <v>0.5321038023310538</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2208327778139258</v>
+        <v>-0.2240186027482886</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.08977863676496425</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9641393326713923</v>
+        <v>0.954326349452395</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4758174883784326</v>
+        <v>0.4724944189235243</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2491226696233728</v>
+        <v>-0.2512893809902813</v>
       </c>
     </row>
   </sheetData>
